--- a/mes-modules/base/src/main/resources/excel/InspectionTemplate.xlsx
+++ b/mes-modules/base/src/main/resources/excel/InspectionTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="10020"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>探伤委托单导入</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>优先级</t>
+  </si>
+  <si>
+    <t>工件地点</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1046,7 +1049,7 @@
     <col min="14" max="14" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1067,9 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1081,8 +1085,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" customFormat="1" spans="1:15">
+    <row r="3" customFormat="1" spans="1:16">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1127,27 +1132,30 @@
       </c>
       <c r="O3" t="s">
         <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A1:P2"/>
   </mergeCells>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 G4:G1048576 H4:H1048576 I4:I1048576 J4:J1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"BOMCO_ZJ_BTJ,BOMCO_ZJ_NTJ"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
       <formula1>"正常探伤,清理,补焊,复探"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4:D1048576">
-      <formula1>"BOMCO_ZJB_TSZ_BT,BOMCO_ZJB_TSZ_NT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 G4:G1048576 H4:H1048576 I4:I1048576 J4:J1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3 O4:O1048576">
+      <formula1>"低,中,高"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F4:F1048576">
       <formula1>"ut,mt,pt,rt"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O3 O4:O1048576">
-      <formula1>"低,中,高"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
